--- a/biology/Zoologie/Corthyle_de_l'érable/Corthyle_de_l'érable.xlsx
+++ b/biology/Zoologie/Corthyle_de_l'érable/Corthyle_de_l'érable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corthyle_de_l%27%C3%A9rable</t>
+          <t>Corthyle_de_l'érable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corthylus punctatissimus, Crypturgus punctatissimus
 Corthylus punctatissimus (corthyle de l'érable) est une espèce d'insectes de l'ordre des coléoptères (insectes possédant en général deux paires d'ailes incluant entre autres les scarabées, coccinelles, lucanes, chrysomèles, hannetons, charançons et carabes).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corthyle_de_l%27%C3%A9rable</t>
+          <t>Corthyle_de_l'érable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Corthylus punctatissimus est décrite par Charles Zimmermann en 1868.
-Synonyme
-Crypturgus punctatissimus Zimmermann, 1868</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Corthylus punctatissimus est décrite par Charles Zimmermann en 1868.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Corthyle_de_l'érable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corthyle_de_l%27%C3%A9rable</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Crypturgus punctatissimus Zimmermann, 1868</t>
         </is>
       </c>
     </row>
